--- a/documentation/diccionario_datos.xlsx
+++ b/documentation/diccionario_datos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="116">
   <si>
     <r>
       <rPr>
@@ -1230,86 +1230,88 @@
     <row r="26">
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="E27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="2" t="s">
+    <row r="31">
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="5"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="9"/>
     </row>
     <row r="34">
       <c r="B34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="D35" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>8</v>
@@ -1319,7 +1321,7 @@
     <row r="36">
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>10</v>
@@ -1332,84 +1334,86 @@
     <row r="37">
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="E39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" s="2" t="s">
+    <row r="43">
+      <c r="B43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="5"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44">
-      <c r="B44" s="8" t="s">
+    <row r="46">
+      <c r="B46" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="D46" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>8</v>
@@ -1419,113 +1423,109 @@
     <row r="47">
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F47" s="9"/>
     </row>
     <row r="48">
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="F48" s="9"/>
     </row>
     <row r="49">
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="8" t="s">
+      <c r="E51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" s="2" t="s">
+    <row r="55">
+      <c r="B55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="5"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="5"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="9"/>
     </row>
     <row r="58">
       <c r="B58" s="8" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>7</v>
@@ -1540,113 +1540,113 @@
         <v>27</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="9"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8" t="s">
+      <c r="D61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="8" t="s">
+      <c r="E62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8" t="s">
+    <row r="63">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="8" t="s">
+      <c r="E63" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65">
-      <c r="B65" s="2" t="s">
+    <row r="67">
+      <c r="B67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66">
-      <c r="B66" s="5"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67">
-      <c r="B67" s="7"/>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="5"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D69" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="9"/>
-    </row>
-    <row r="69">
-      <c r="B69" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="9"/>
     </row>
     <row r="70">
       <c r="B70" s="8" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>7</v>
@@ -1661,112 +1661,116 @@
         <v>27</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72">
-      <c r="B72" s="8"/>
-      <c r="C72" s="8" t="s">
+      <c r="D73" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="8" t="s">
+      <c r="E74" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" s="8"/>
-      <c r="C73" s="8" t="s">
+    <row r="75">
+      <c r="B75" s="8"/>
+      <c r="C75" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D75" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="8" t="s">
+      <c r="E75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="77">
-      <c r="B77" s="2" t="s">
+    <row r="79">
+      <c r="B79" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78">
-      <c r="B78" s="5"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79">
-      <c r="B79" s="7"/>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="5"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E81" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80">
-      <c r="B80" s="8" t="s">
+    <row r="82">
+      <c r="B82" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81">
-      <c r="B81" s="8"/>
-      <c r="C81" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="9"/>
-    </row>
-    <row r="82">
-      <c r="B82" s="8"/>
-      <c r="C82" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="D82" s="8" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>8</v>
@@ -1776,7 +1780,7 @@
     <row r="83">
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>10</v>
@@ -1789,25 +1793,25 @@
     <row r="84">
       <c r="B84" s="8"/>
       <c r="C84" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="10"/>
+      <c r="F84" s="9"/>
     </row>
     <row r="85">
       <c r="B85" s="8"/>
       <c r="C85" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="9"/>
@@ -1815,308 +1819,306 @@
     <row r="86">
       <c r="B86" s="8"/>
       <c r="C86" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="E86" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="10"/>
     </row>
     <row r="87">
       <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F87" s="9"/>
     </row>
     <row r="88">
       <c r="B88" s="8"/>
       <c r="C88" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>59</v>
+        <v>21</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="89">
       <c r="B89" s="8"/>
       <c r="C89" s="8" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="90">
       <c r="B90" s="8"/>
       <c r="C90" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>61</v>
+      <c r="E90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" s="8"/>
       <c r="C91" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="8"/>
+      <c r="C92" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="8"/>
+      <c r="C93" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D93" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="8" t="s">
+      <c r="E93" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95">
-      <c r="B95" s="2" t="s">
+    <row r="97">
+      <c r="B97" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="4"/>
-    </row>
-    <row r="96">
-      <c r="B96" s="5"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="4"/>
-    </row>
-    <row r="97">
-      <c r="B97" s="7"/>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="5"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="7"/>
+      <c r="C99" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D99" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98">
-      <c r="B98" s="8" t="s">
+    <row r="100">
+      <c r="B100" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D98" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F98" s="9"/>
-    </row>
-    <row r="99">
-      <c r="B99" s="8" t="s">
+      <c r="D100" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C101" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" s="9"/>
-    </row>
-    <row r="100">
-      <c r="B100" s="8"/>
-      <c r="C100" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="9"/>
-    </row>
-    <row r="101">
-      <c r="B101" s="8"/>
-      <c r="C101" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="D101" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="F101" s="9"/>
     </row>
     <row r="102">
       <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="F102" s="9"/>
     </row>
     <row r="103">
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="8"/>
+      <c r="C104" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="8"/>
+      <c r="C105" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D105" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" s="8" t="s">
+      <c r="E105" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="107">
-      <c r="B107" s="2" t="s">
+    <row r="109">
+      <c r="B109" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="4"/>
-    </row>
-    <row r="108">
-      <c r="B108" s="5"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="4"/>
-    </row>
-    <row r="109">
-      <c r="B109" s="7"/>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="5"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="7"/>
+      <c r="C111" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D111" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E111" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F111" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110">
-      <c r="B110" s="8" t="s">
+    <row r="112">
+      <c r="B112" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C112" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" s="9"/>
-    </row>
-    <row r="111">
-      <c r="B111" s="8" t="s">
+      <c r="D112" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C113" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="9"/>
-    </row>
-    <row r="112">
-      <c r="B112" s="8"/>
-      <c r="C112" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" s="9"/>
-    </row>
-    <row r="113">
-      <c r="B113" s="8"/>
-      <c r="C113" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="D113" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="F113" s="9"/>
     </row>
     <row r="114">
       <c r="B114" s="8"/>
       <c r="C114" s="8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>8</v>
@@ -2126,233 +2128,231 @@
     <row r="115">
       <c r="B115" s="8"/>
       <c r="C115" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F115" s="9"/>
+      <c r="F115" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="116">
       <c r="B116" s="8"/>
       <c r="C116" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F116" s="9"/>
     </row>
     <row r="117">
       <c r="B117" s="8"/>
       <c r="C117" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F117" s="9"/>
     </row>
     <row r="118">
       <c r="B118" s="8"/>
       <c r="C118" s="8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F118" s="12" t="s">
-        <v>61</v>
+      <c r="F118" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" s="8"/>
       <c r="C119" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F119" s="12" t="s">
-        <v>61</v>
+      <c r="F119" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" s="8"/>
       <c r="C120" s="8" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>69</v>
+        <v>21</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="121">
-      <c r="B121" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B121" s="8"/>
       <c r="C121" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F121" s="11" t="s">
-        <v>22</v>
+      <c r="F121" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" s="8"/>
       <c r="C122" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="8"/>
+      <c r="C124" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D124" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E122" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" s="8" t="s">
+      <c r="E124" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="123">
-      <c r="B123" s="8"/>
-      <c r="C123" s="8" t="s">
+    <row r="125">
+      <c r="B125" s="8"/>
+      <c r="C125" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D125" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E123" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="8" t="s">
+      <c r="E125" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127">
-      <c r="B127" s="2" t="s">
+    <row r="129">
+      <c r="B129" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="4"/>
-    </row>
-    <row r="128">
-      <c r="B128" s="5"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="4"/>
-    </row>
-    <row r="129">
-      <c r="B129" s="7"/>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="5"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="7"/>
+      <c r="C131" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D131" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="E131" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F131" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="130">
-      <c r="B130" s="8" t="s">
+    <row r="132">
+      <c r="B132" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C132" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F130" s="9"/>
-    </row>
-    <row r="131">
-      <c r="B131" s="8" t="s">
+      <c r="D132" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" s="9"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C133" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D131" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" s="9"/>
-    </row>
-    <row r="132">
-      <c r="B132" s="8"/>
-      <c r="C132" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="B133" s="8"/>
-      <c r="C133" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="D133" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F133" s="9"/>
     </row>
     <row r="134">
       <c r="B134" s="8"/>
       <c r="C134" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>10</v>
@@ -2367,7 +2367,7 @@
     <row r="135">
       <c r="B135" s="8"/>
       <c r="C135" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>10</v>
@@ -2382,7 +2382,7 @@
     <row r="136">
       <c r="B136" s="8"/>
       <c r="C136" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>10</v>
@@ -2397,7 +2397,7 @@
     <row r="137">
       <c r="B137" s="8"/>
       <c r="C137" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>10</v>
@@ -2412,156 +2412,162 @@
     <row r="138">
       <c r="B138" s="8"/>
       <c r="C138" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="8"/>
+      <c r="C139" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" s="8"/>
+      <c r="C140" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="8"/>
+      <c r="C141" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E138" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" s="8" t="s">
+      <c r="E141" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="142">
-      <c r="B142" s="2" t="s">
+    <row r="145">
+      <c r="B145" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="4"/>
-    </row>
-    <row r="143">
-      <c r="B143" s="5"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="4"/>
-    </row>
-    <row r="144">
-      <c r="B144" s="7"/>
-      <c r="C144" s="7" t="s">
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="4"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="5"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="4"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="7"/>
+      <c r="C147" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D147" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E144" s="7" t="s">
+      <c r="E147" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="F147" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="B145" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" s="9"/>
-    </row>
-    <row r="146">
-      <c r="B146" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" s="9"/>
-    </row>
-    <row r="147">
-      <c r="B147" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="148">
       <c r="B148" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" s="9"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C149" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" s="9"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D148" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" s="8" t="s">
+      <c r="D151" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="149">
-      <c r="B149" s="8"/>
-      <c r="C149" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" s="9"/>
-    </row>
-    <row r="150">
-      <c r="B150" s="8"/>
-      <c r="C150" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F150" s="9"/>
-    </row>
-    <row r="151">
-      <c r="B151" s="8"/>
-      <c r="C151" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" s="9"/>
     </row>
     <row r="152">
       <c r="B152" s="8"/>
       <c r="C152" s="8" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>10</v>
@@ -2574,7 +2580,7 @@
     <row r="153">
       <c r="B153" s="8"/>
       <c r="C153" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>10</v>
@@ -2587,7 +2593,7 @@
     <row r="154">
       <c r="B154" s="8"/>
       <c r="C154" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>10</v>
@@ -2600,7 +2606,7 @@
     <row r="155">
       <c r="B155" s="8"/>
       <c r="C155" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>10</v>
@@ -2613,37 +2619,33 @@
     <row r="156">
       <c r="B156" s="8"/>
       <c r="C156" s="8" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F156" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="F156" s="9"/>
     </row>
     <row r="157">
       <c r="B157" s="8"/>
       <c r="C157" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F157" s="8" t="s">
-        <v>91</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F157" s="9"/>
     </row>
     <row r="158">
       <c r="B158" s="8"/>
       <c r="C158" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>10</v>
@@ -2651,140 +2653,138 @@
       <c r="E158" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F158" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="F158" s="9"/>
     </row>
     <row r="159">
       <c r="B159" s="8"/>
       <c r="C159" s="8" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
       <c r="B160" s="8"/>
       <c r="C160" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="8"/>
+      <c r="C161" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" s="8"/>
+      <c r="C162" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="8"/>
+      <c r="C163" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D163" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E160" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" s="8" t="s">
+      <c r="E163" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="164">
-      <c r="B164" s="2" t="s">
+    <row r="167">
+      <c r="B167" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="4"/>
-    </row>
-    <row r="165">
-      <c r="B165" s="5"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="4"/>
-    </row>
-    <row r="166">
-      <c r="B166" s="7"/>
-      <c r="C166" s="7" t="s">
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="5"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="4"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="7"/>
+      <c r="C169" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D169" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E169" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="F169" s="7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="B167" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F167" s="9"/>
-    </row>
-    <row r="168">
-      <c r="B168" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E168" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F168" s="9"/>
-    </row>
-    <row r="169">
-      <c r="B169" s="8"/>
-      <c r="C169" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F169" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="170">
       <c r="B170" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" s="9"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C170" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E170" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="B171" s="8"/>
       <c r="C171" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>8</v>
@@ -2794,232 +2794,236 @@
     <row r="172">
       <c r="B172" s="8"/>
       <c r="C172" s="8" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F172" s="9"/>
+      <c r="F172" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="173">
-      <c r="B173" s="8"/>
+      <c r="B173" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C173" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E173" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" s="8"/>
       <c r="C174" s="8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F174" s="8" t="s">
-        <v>91</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F174" s="9"/>
     </row>
     <row r="175">
       <c r="B175" s="8"/>
       <c r="C175" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F175" s="9"/>
     </row>
     <row r="176">
       <c r="B176" s="8"/>
       <c r="C176" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F176" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="177">
       <c r="B177" s="8"/>
       <c r="C177" s="8" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178">
-      <c r="B178" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B178" s="8"/>
       <c r="C178" s="8" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F178" s="11" t="s">
-        <v>22</v>
-      </c>
+      <c r="F178" s="9"/>
     </row>
     <row r="179">
       <c r="B179" s="8"/>
       <c r="C179" s="8" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F179" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179" s="9"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="8"/>
+      <c r="C180" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" s="8"/>
+      <c r="C183" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="183">
-      <c r="B183" s="2" t="s">
+    <row r="187">
+      <c r="B187" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="4"/>
-    </row>
-    <row r="184">
-      <c r="B184" s="5"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="4"/>
-    </row>
-    <row r="185">
-      <c r="B185" s="7"/>
-      <c r="C185" s="7" t="s">
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="5"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="7"/>
+      <c r="C189" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D189" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E185" s="7" t="s">
+      <c r="E189" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F185" s="7" t="s">
+      <c r="F189" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="186">
-      <c r="B186" s="8" t="s">
+    <row r="190">
+      <c r="B190" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C190" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D186" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F186" s="9"/>
-    </row>
-    <row r="187">
-      <c r="B187" s="8" t="s">
+      <c r="D190" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190" s="9"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C191" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D187" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E187" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F187" s="9"/>
-    </row>
-    <row r="188">
-      <c r="B188" s="8"/>
-      <c r="C188" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F188" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="B189" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C189" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F189" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="B190" s="8"/>
-      <c r="C190" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F190" s="9"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="8"/>
-      <c r="C191" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="D191" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>8</v>
@@ -3029,211 +3033,221 @@
     <row r="192">
       <c r="B192" s="8"/>
       <c r="C192" s="8" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="193">
-      <c r="B193" s="8"/>
+      <c r="B193" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C193" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="194">
       <c r="B194" s="8"/>
       <c r="C194" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F194" s="9"/>
     </row>
     <row r="195">
       <c r="B195" s="8"/>
       <c r="C195" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F195" s="9"/>
     </row>
     <row r="196">
       <c r="B196" s="8"/>
       <c r="C196" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197">
-      <c r="B197" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B197" s="8"/>
       <c r="C197" s="8" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F197" s="11" t="s">
-        <v>22</v>
+      <c r="F197" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="198">
       <c r="B198" s="8"/>
       <c r="C198" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F198" s="9"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="8"/>
+      <c r="C199" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F199" s="9"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="8"/>
+      <c r="C200" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F202" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" s="8"/>
+      <c r="C203" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="D203" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E198" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F198" s="8" t="s">
+      <c r="E203" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="202">
-      <c r="B202" s="2" t="s">
+    <row r="207">
+      <c r="B207" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="4"/>
-    </row>
-    <row r="203">
-      <c r="B203" s="5"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="4"/>
-    </row>
-    <row r="204">
-      <c r="B204" s="7"/>
-      <c r="C204" s="7" t="s">
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="5"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="4"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="7"/>
+      <c r="C209" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D209" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E204" s="7" t="s">
+      <c r="E209" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F204" s="7" t="s">
+      <c r="F209" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="205">
-      <c r="B205" s="8" t="s">
+    <row r="210">
+      <c r="B210" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C210" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D205" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F205" s="9"/>
-    </row>
-    <row r="206">
-      <c r="B206" s="8"/>
-      <c r="C206" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E206" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F206" s="9"/>
-    </row>
-    <row r="207">
-      <c r="B207" s="8"/>
-      <c r="C207" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E207" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F207" s="9"/>
-    </row>
-    <row r="208">
-      <c r="B208" s="8"/>
-      <c r="C208" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F208" s="9"/>
-    </row>
-    <row r="209">
-      <c r="B209" s="8"/>
-      <c r="C209" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F209" s="9"/>
-    </row>
-    <row r="210">
-      <c r="B210" s="8"/>
-      <c r="C210" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="D210" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>8</v>
@@ -3243,7 +3257,7 @@
     <row r="211">
       <c r="B211" s="8"/>
       <c r="C211" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D211" s="8" t="s">
         <v>10</v>
@@ -3256,28 +3270,93 @@
     <row r="212">
       <c r="B212" s="8"/>
       <c r="C212" s="8" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F212" s="9"/>
     </row>
     <row r="213">
       <c r="B213" s="8"/>
       <c r="C213" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" s="9"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="8"/>
+      <c r="C214" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F214" s="9"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="8"/>
+      <c r="C215" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" s="9"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="8"/>
+      <c r="C216" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216" s="9"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="8"/>
+      <c r="C217" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E217" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" s="9"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="8"/>
+      <c r="C218" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D213" s="8" t="s">
+      <c r="D218" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E213" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F213" s="9"/>
+      <c r="E218" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -3285,30 +3364,30 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B30:F30"/>
     <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B145:F145"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/documentation/diccionario_datos.xlsx
+++ b/documentation/diccionario_datos.xlsx
@@ -1,7 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -17,14 +20,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> usuarios</t>
     </r>
@@ -127,14 +132,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> administrativos</t>
     </r>
@@ -150,14 +157,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> auditados</t>
     </r>
@@ -176,14 +185,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> roles_auditor</t>
     </r>
@@ -208,14 +219,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> participantes_planes</t>
     </r>
@@ -231,14 +244,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> participantes_auditorias</t>
     </r>
@@ -254,14 +269,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> planes</t>
     </r>
@@ -301,14 +318,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> actividades</t>
     </r>
@@ -327,14 +346,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> auditorias</t>
     </r>
@@ -356,14 +377,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> auditorias_standar</t>
     </r>
@@ -394,14 +417,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> observaciones</t>
     </r>
@@ -459,14 +484,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> resp_observacion</t>
     </r>
@@ -506,14 +533,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> seguimientos</t>
     </r>
@@ -526,14 +555,16 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>TABLA:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> informes</t>
     </r>
@@ -555,34 +586,526 @@
   </si>
   <si>
     <t>participantes</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>id_permiso</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Las opciones del sistema son [ ADMINITRADOR, AUDITOR , AUDITADO ]</t>
+  </si>
+  <si>
+    <t>cuenta_activa</t>
+  </si>
+  <si>
+    <t>activado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ true] [false] </t>
+  </si>
+  <si>
+    <t>activadocuenta_activa</t>
+  </si>
+  <si>
+    <t>sucursal</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>TABLA: permisos</t>
+  </si>
+  <si>
+    <t>titulo</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>crear</t>
+  </si>
+  <si>
+    <t>leer</t>
+  </si>
+  <si>
+    <t>modificar</t>
+  </si>
+  <si>
+    <t>borrar</t>
+  </si>
+  <si>
+    <t>acceso</t>
+  </si>
+  <si>
+    <t>paginas</t>
+  </si>
+  <si>
+    <t>estado0</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Las opciones son [ALL, ESPECIFIC]</t>
+  </si>
+  <si>
+    <t>[ true ] o [false]</t>
+  </si>
+  <si>
+    <t>TABLA: participantes</t>
+  </si>
+  <si>
+    <t>id_participante</t>
+  </si>
+  <si>
+    <t>id_usuario</t>
+  </si>
+  <si>
+    <t>id_plan</t>
+  </si>
+  <si>
+    <t>id_auditoria</t>
+  </si>
+  <si>
+    <t>rol</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>id_usuario_administrador</t>
+  </si>
+  <si>
+    <t>etapa</t>
+  </si>
+  <si>
+    <t>cronograma</t>
+  </si>
+  <si>
+    <t>aprobacion_planificacion</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>id del administrador que creo el plan</t>
+  </si>
+  <si>
+    <t>Las opciones del sistema son [ PLANEACION, EJECUCION, FINALIZADO]</t>
+  </si>
+  <si>
+    <t>Las opciones del sistema son [ APERTURA, PLANEACION, EJECUCION, FINALIZADO]</t>
+  </si>
+  <si>
+    <t>Las opciones del sistema son [ APERTURA, PLANEACION, EJECUCION, CIERRE]</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Puede almacenar un array de ID</t>
+  </si>
+  <si>
+    <t>Puede almacenar un array de IDs</t>
+  </si>
+  <si>
+    <t>Las opciones del usuario son [ BAJO, MEDIO, ALTO]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABLA: planes				
+	COLUMNA	TIPO DE DATO	NULL	DESCRIPCION
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABLA: cronogramas
+</t>
+  </si>
+  <si>
+    <t>id_cronograma</t>
+  </si>
+  <si>
+    <t>fecha_inicio_plan</t>
+  </si>
+  <si>
+    <t>fecha_fin_plan</t>
+  </si>
+  <si>
+    <t>fecha_inicio_real</t>
+  </si>
+  <si>
+    <t>fecha_fin_real</t>
+  </si>
+  <si>
+    <t>fecha de inicio planificada</t>
+  </si>
+  <si>
+    <t>fecha de fin planificada</t>
+  </si>
+  <si>
+    <t>fecha de inicio real</t>
+  </si>
+  <si>
+    <t>fecha de fin real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABLA: permisos				
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABLA: aprobacion				
+</t>
+  </si>
+  <si>
+    <t>TABLA: votacion</t>
+  </si>
+  <si>
+    <t>id_voto</t>
+  </si>
+  <si>
+    <t>voto</t>
+  </si>
+  <si>
+    <t>comentario</t>
+  </si>
+  <si>
+    <t>TABLA: checks</t>
+  </si>
+  <si>
+    <t>id_revision</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>fecha_creacion</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>id_aprobacion</t>
+  </si>
+  <si>
+    <t>aprobacion</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>En este campo se almacena un conjunto de IDs</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>[Null][True][False]</t>
+  </si>
+  <si>
+    <t>Las opciones del sistema son [ PLANECACION, EJECUCION ]</t>
+  </si>
+  <si>
+    <t>En este campo se almacena el ID del participante que emitio su voto</t>
+  </si>
+  <si>
+    <t>[True][False]</t>
+  </si>
+  <si>
+    <t>El comentario solo se emite cuando el check de un participante es False o cuando se fuerza la aprobacion</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FKs</t>
+  </si>
+  <si>
+    <t>origen</t>
+  </si>
+  <si>
+    <t>aprobacion_ejecucion</t>
+  </si>
+  <si>
+    <t>documentos</t>
+  </si>
+  <si>
+    <t>Las opciones del sistema son: [ general, "especial" ]</t>
+  </si>
+  <si>
+    <t>Las opciones del sistema son: [ GENERAL, "ESPECIAL" ]</t>
+  </si>
+  <si>
+    <t>Las opciones del sistema son: [ PLANIFICADA, IMPREVISTA ]</t>
+  </si>
+  <si>
+    <t>Las opciones del sistema son: [ PLANIFICADO, IMPREVISTO]</t>
+  </si>
+  <si>
+    <t>ObjectId</t>
+  </si>
+  <si>
+    <t>Esta disponible a almacenar un conjunto de IDs</t>
+  </si>
+  <si>
+    <t>Esta disponible a almacenar un conjunto de IDs en []</t>
+  </si>
+  <si>
+    <t>Inicia con [ null ]</t>
+  </si>
+  <si>
+    <t>Esta disponible a almacenar un conjunto de IDs en un arreglo</t>
+  </si>
+  <si>
+    <t>Las opciones del usuario son: [ GENERAL, "ESPECIAL" ]</t>
+  </si>
+  <si>
+    <t>TABLA: detalle_auditoria</t>
+  </si>
+  <si>
+    <t>id_detalle_auditoria</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>documentos_apoyo</t>
+  </si>
+  <si>
+    <t>objetivo</t>
+  </si>
+  <si>
+    <t>alcance</t>
+  </si>
+  <si>
+    <t>antecedentes</t>
+  </si>
+  <si>
+    <t>metodologia</t>
+  </si>
+  <si>
+    <t>motivodetalle_cronograma</t>
+  </si>
+  <si>
+    <t>detalle_cronograma</t>
+  </si>
+  <si>
+    <t>motivo</t>
+  </si>
+  <si>
+    <t>limitacion</t>
+  </si>
+  <si>
+    <t>resultados</t>
+  </si>
+  <si>
+    <t>concluciones</t>
+  </si>
+  <si>
+    <t>objetivos</t>
+  </si>
+  <si>
+    <t>alcances</t>
+  </si>
+  <si>
+    <t>TABLA: procedimientos</t>
+  </si>
+  <si>
+    <t>id_procedimiento</t>
+  </si>
+  <si>
+    <t>actividad</t>
+  </si>
+  <si>
+    <t>norma</t>
+  </si>
+  <si>
+    <t>riesgo</t>
+  </si>
+  <si>
+    <t>hecho_por</t>
+  </si>
+  <si>
+    <t>comentarios</t>
+  </si>
+  <si>
+    <t>referencias</t>
+  </si>
+  <si>
+    <t>En este campo se almacena el ID de un participante de ejecucion</t>
+  </si>
+  <si>
+    <t>Las opciones del usuario son: [ BAJO, MEDIO, ALTO ]</t>
+  </si>
+  <si>
+    <t>Esta disponible a almacenar un conjunto de IDs en un arreglo de la tabla</t>
+  </si>
+  <si>
+    <t>Esta disponible a almacenar un conjunto de IDs en un arreglo de la tabla observacion</t>
+  </si>
+  <si>
+    <t>id_usuario_auditor</t>
+  </si>
+  <si>
+    <t>complemento</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>directorio</t>
+  </si>
+  <si>
+    <t>comentario_aprobacion</t>
+  </si>
+  <si>
+    <t>fecha_aprobacion</t>
+  </si>
+  <si>
+    <t>aceptacion</t>
+  </si>
+  <si>
+    <t>comentario_aceptacion</t>
+  </si>
+  <si>
+    <t>fecha_aceptacion</t>
+  </si>
+  <si>
+    <t>En este campo se almacena el ID del participante que creo la observacion</t>
+  </si>
+  <si>
+    <t>En este campo se almacena el ID del usuario de tipo auditado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este campo se almacena el ID del usuario de tipo auditado </t>
+  </si>
+  <si>
+    <t>id_usuario_auditado</t>
+  </si>
+  <si>
+    <t>Contiene un arreglo con las rutas de los adjuntos</t>
+  </si>
+  <si>
+    <t>Es la dirrecion de la carpeta donde se guardaran los adjuntos relacionados a la observacion</t>
+  </si>
+  <si>
+    <t>Inicia con [ false ]</t>
+  </si>
+  <si>
+    <t>Este campo lo llena el auditado</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Este campo lo llena el auditor</t>
+  </si>
+  <si>
+    <t>aprobacion_auditor</t>
+  </si>
+  <si>
+    <t>Esta disponible a almacenar un conjunto de IDs en un arreglo de la tabla documentos</t>
+  </si>
+  <si>
+    <t>id_informe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este campo se almacena el ID del usuario de tipo auditado
+</t>
+  </si>
+  <si>
+    <t>TABLA: documentos</t>
+  </si>
+  <si>
+    <t>id_documento</t>
+  </si>
+  <si>
+    <t>numeracion</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>firmas</t>
+  </si>
+  <si>
+    <t>referencia</t>
+  </si>
+  <si>
+    <t>ruta_original</t>
+  </si>
+  <si>
+    <t>ruta_personalizado</t>
+  </si>
+  <si>
+    <t>Las opciones del sistema son: [ INFORME_AUDITORIA, INFORME_SEGUIMIENTO, MEMORANDUM_AUDITORIA] ]</t>
+  </si>
+  <si>
+    <t>almacena la ruta del documento generado en pdf</t>
+  </si>
+  <si>
+    <t>almacena la ruta del pdf del documento generado por el sistema</t>
+  </si>
+  <si>
+    <t>almacena la ruta del documento personalizado subido por el usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timestamp
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <color rgb="FF000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Arial"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
@@ -669,41 +1192,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -908,21 +1421,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="F255" sqref="F255"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.88"/>
-    <col customWidth="1" min="2" max="2" width="4.5"/>
-    <col customWidth="1" min="3" max="3" width="24.25"/>
-    <col customWidth="1" min="4" max="4" width="14.13"/>
-    <col customWidth="1" min="5" max="5" width="7.5"/>
-    <col customWidth="1" min="6" max="6" width="69.5"/>
+    <col min="1" max="1" width="6.88" customWidth="1"/>
+    <col min="2" max="2" width="5.62" customWidth="1"/>
+    <col min="3" max="3" width="28.44" customWidth="1"/>
+    <col min="4" max="4" width="18.48" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="126.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -983,13 +1498,14 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>8</v>
@@ -1000,7 +1516,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
@@ -1014,7 +1530,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
@@ -1022,40 +1538,38 @@
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="F8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1119,7 +1633,6 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>26</v>
@@ -1133,520 +1646,566 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+    <row r="24">
+      <c r="B24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" s="8" t="s">
+    <row r="27">
+      <c r="B27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>31</v>
+      <c r="E30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="32">
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="33">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>4</v>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="35">
-      <c r="B35" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36">
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="42">
+      <c r="B42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+    </row>
     <row r="43">
-      <c r="B43" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44">
-      <c r="B44" s="5"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B45" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" s="8"/>
     </row>
     <row r="46">
-      <c r="B46" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="47">
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="8"/>
+      <c r="B48" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="C48" s="8" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="49">
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="50">
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="8" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="54">
+      <c r="B54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4"/>
+    </row>
     <row r="55">
-      <c r="B55" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56">
-      <c r="B56" s="5"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="4"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B57" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" s="8"/>
     </row>
     <row r="58">
       <c r="B58" s="8" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="59">
-      <c r="B59" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B59" s="8"/>
       <c r="C59" s="8" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="60">
-      <c r="B60" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B60" s="8"/>
       <c r="C60" s="8" t="s">
-        <v>6</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="61">
-      <c r="B61" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B61" s="8"/>
       <c r="C61" s="8" t="s">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="62">
       <c r="B62" s="8"/>
       <c r="C62" s="8" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="8" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="66">
+      <c r="B66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+    </row>
     <row r="67">
-      <c r="B67" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="B67" s="5"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="4"/>
     </row>
     <row r="68">
-      <c r="B68" s="5"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B69" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="9"/>
     </row>
     <row r="70">
       <c r="B70" s="8" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>7</v>
@@ -1657,14 +2216,12 @@
       <c r="F70" s="9"/>
     </row>
     <row r="71">
-      <c r="B71" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B71" s="8"/>
       <c r="C71" s="8" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>8</v>
@@ -1676,7 +2233,7 @@
         <v>27</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>7</v>
@@ -1688,52 +2245,65 @@
     </row>
     <row r="73">
       <c r="B73" s="8" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="F73" s="8"/>
     </row>
     <row r="74">
       <c r="B74" s="8"/>
       <c r="C74" s="8" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F74" s="8"/>
     </row>
     <row r="75">
       <c r="B75" s="8"/>
       <c r="C75" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="8"/>
+      <c r="C76" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D76" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="8" t="s">
+      <c r="E76" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -1741,7 +2311,7 @@
       <c r="F79" s="4"/>
     </row>
     <row r="80">
-      <c r="B80" s="5"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -1763,215 +2333,219 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B82" s="8"/>
       <c r="C82" s="8" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="F82" s="8"/>
     </row>
     <row r="83">
       <c r="B83" s="8"/>
       <c r="C83" s="8" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="84">
       <c r="B84" s="8"/>
       <c r="C84" s="8" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="85">
       <c r="B85" s="8"/>
       <c r="C85" s="8" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="86">
       <c r="B86" s="8"/>
       <c r="C86" s="8" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="87">
       <c r="B87" s="8"/>
       <c r="C87" s="8" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="9"/>
+      <c r="E87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="88">
       <c r="B88" s="8"/>
       <c r="C88" s="8" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="8"/>
-      <c r="C89" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="8"/>
-      <c r="C90" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" s="8"/>
-      <c r="C91" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
-      <c r="B92" s="8"/>
-      <c r="C92" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="B92" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93">
-      <c r="B93" s="8"/>
-      <c r="C93" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>31</v>
+      <c r="B93" s="5"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="7"/>
+      <c r="C94" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="9"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="4"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="9"/>
     </row>
     <row r="98">
-      <c r="B98" s="5"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="4"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="99">
-      <c r="B99" s="7"/>
-      <c r="C99" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="9"/>
     </row>
     <row r="100">
-      <c r="B100" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B100" s="8"/>
       <c r="C100" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>8</v>
@@ -1980,114 +2554,120 @@
     </row>
     <row r="101">
       <c r="B101" s="8" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="102">
-      <c r="B102" s="8"/>
+      <c r="B102" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="C102" s="8" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="103">
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" s="8"/>
       <c r="C104" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" s="8"/>
-      <c r="C105" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="8" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="108">
+      <c r="B108" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="4"/>
+    </row>
     <row r="109">
-      <c r="B109" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B109" s="5"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="4"/>
     </row>
     <row r="110">
-      <c r="B110" s="5"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="4"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="111">
-      <c r="B111" s="7"/>
-      <c r="C111" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B111" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="9"/>
     </row>
     <row r="112">
       <c r="B112" s="8" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>7</v>
@@ -2098,14 +2678,12 @@
       <c r="F112" s="9"/>
     </row>
     <row r="113">
-      <c r="B113" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B113" s="8"/>
       <c r="C113" s="8" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>8</v>
@@ -2115,7 +2693,7 @@
     <row r="114">
       <c r="B114" s="8"/>
       <c r="C114" s="8" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>10</v>
@@ -2123,801 +2701,796 @@
       <c r="E114" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F114" s="9"/>
+      <c r="F114" s="8" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="115">
       <c r="B115" s="8"/>
       <c r="C115" s="8" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" s="8"/>
       <c r="C116" s="8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F116" s="9"/>
-    </row>
-    <row r="117">
-      <c r="B117" s="8"/>
-      <c r="C117" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" s="9"/>
-    </row>
-    <row r="118">
-      <c r="B118" s="8"/>
-      <c r="C118" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" s="8"/>
-      <c r="C119" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>22</v>
+      <c r="F116" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="120">
-      <c r="B120" s="8"/>
-      <c r="C120" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="B120" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="4"/>
     </row>
     <row r="121">
-      <c r="B121" s="8"/>
-      <c r="C121" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="4"/>
     </row>
     <row r="122">
-      <c r="B122" s="8"/>
-      <c r="C122" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>69</v>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" s="8" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F123" s="9"/>
     </row>
     <row r="124">
-      <c r="B124" s="8"/>
+      <c r="B124" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C124" s="8" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F124" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="F124" s="9"/>
     </row>
     <row r="125">
       <c r="B125" s="8"/>
       <c r="C125" s="8" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="8"/>
+      <c r="C126" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="8"/>
+      <c r="C127" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="8"/>
+      <c r="C128" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="9"/>
     </row>
     <row r="129">
-      <c r="B129" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="4"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F129" s="8"/>
     </row>
     <row r="130">
-      <c r="B130" s="5"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="4"/>
+      <c r="B130" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="131">
-      <c r="B131" s="7"/>
-      <c r="C131" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>4</v>
+      <c r="B131" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="8" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="133">
       <c r="B133" s="8" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F133" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="134">
       <c r="B134" s="8"/>
       <c r="C134" s="8" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F134" s="11" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" s="8"/>
       <c r="C135" s="8" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E135" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="5"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="7"/>
+      <c r="C141" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="9"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" s="9"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="8"/>
+      <c r="C144" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F135" s="11" t="s">
+      <c r="F144" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="136">
-      <c r="B136" s="8"/>
-      <c r="C136" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" s="8" t="s">
+    <row r="145">
+      <c r="B145" s="8"/>
+      <c r="C145" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F136" s="11" t="s">
+      <c r="F145" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="137">
-      <c r="B137" s="8"/>
-      <c r="C137" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" s="8" t="s">
+    <row r="146">
+      <c r="B146" s="8"/>
+      <c r="C146" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F137" s="11" t="s">
+      <c r="F146" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="138">
-      <c r="B138" s="8"/>
-      <c r="C138" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E138" s="8" t="s">
+    <row r="147">
+      <c r="B147" s="8"/>
+      <c r="C147" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="F147" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="139">
-      <c r="B139" s="8"/>
-      <c r="C139" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E139" s="8" t="s">
+    <row r="148">
+      <c r="B148" s="8"/>
+      <c r="C148" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F139" s="11" t="s">
+      <c r="F148" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="140">
-      <c r="B140" s="8"/>
-      <c r="C140" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="B141" s="8"/>
-      <c r="C141" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="B145" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="4"/>
-    </row>
-    <row r="146">
-      <c r="B146" s="5"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="4"/>
-    </row>
-    <row r="147">
-      <c r="B147" s="7"/>
-      <c r="C147" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="B148" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" s="9"/>
-    </row>
     <row r="149">
-      <c r="B149" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B149" s="8"/>
       <c r="C149" s="8" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="150">
-      <c r="B150" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B150" s="8"/>
       <c r="C150" s="8" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="151">
-      <c r="B151" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B151" s="8"/>
       <c r="C151" s="8" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="152">
       <c r="B152" s="8"/>
       <c r="C152" s="8" t="s">
-        <v>43</v>
+        <v>219</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="153">
       <c r="B153" s="8"/>
       <c r="C153" s="8" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="154">
       <c r="B154" s="8"/>
       <c r="C154" s="8" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F154" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="155">
       <c r="B155" s="8"/>
       <c r="C155" s="8" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F155" s="9"/>
+      <c r="F155" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="156">
       <c r="B156" s="8"/>
       <c r="C156" s="8" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F156" s="9"/>
-    </row>
-    <row r="157">
-      <c r="B157" s="8"/>
-      <c r="C157" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E157" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F157" s="9"/>
-    </row>
-    <row r="158">
-      <c r="B158" s="8"/>
-      <c r="C158" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F158" s="9"/>
+      <c r="F156" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="159">
-      <c r="B159" s="8"/>
-      <c r="C159" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B159" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="4"/>
     </row>
     <row r="160">
-      <c r="B160" s="8"/>
-      <c r="C160" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F160" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="4"/>
     </row>
     <row r="161">
-      <c r="B161" s="8"/>
-      <c r="C161" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161" s="8" t="s">
-        <v>93</v>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="162">
-      <c r="B162" s="8"/>
+      <c r="B162" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C162" s="8" t="s">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F162" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="F162" s="9"/>
     </row>
     <row r="163">
-      <c r="B163" s="8"/>
+      <c r="B163" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C163" s="8" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F163" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="F163" s="9"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="8"/>
+      <c r="C164" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="8"/>
+      <c r="C165" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F165" s="11"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="8"/>
+      <c r="C166" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F166" s="11"/>
     </row>
     <row r="167">
-      <c r="B167" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="4"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="168">
-      <c r="B168" s="5"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="4"/>
+      <c r="B168" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="169">
-      <c r="B169" s="7"/>
-      <c r="C169" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F169" s="11"/>
     </row>
     <row r="170">
       <c r="B170" s="8" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="171">
-      <c r="B171" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B171" s="8"/>
       <c r="C171" s="8" t="s">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F171" s="9"/>
+      <c r="F171" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="172">
       <c r="B172" s="8"/>
       <c r="C172" s="8" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="B173" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="5"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="4"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="7"/>
+      <c r="C177" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" s="9"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D173" s="8" t="s">
+      <c r="C179" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D179" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E173" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F173" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="B174" s="8"/>
-      <c r="C174" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F174" s="9"/>
-    </row>
-    <row r="175">
-      <c r="B175" s="8"/>
-      <c r="C175" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F175" s="9"/>
-    </row>
-    <row r="176">
-      <c r="B176" s="8"/>
-      <c r="C176" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="B177" s="8"/>
-      <c r="C177" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F177" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="B178" s="8"/>
-      <c r="C178" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F178" s="9"/>
-    </row>
-    <row r="179">
-      <c r="B179" s="8"/>
-      <c r="C179" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E179" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F179" s="9"/>
     </row>
     <row r="180">
-      <c r="B180" s="8"/>
+      <c r="B180" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C180" s="8" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
     </row>
     <row r="181">
@@ -2925,7 +3498,7 @@
         <v>27</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>7</v>
@@ -2934,343 +3507,393 @@
         <v>8</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
     </row>
     <row r="182">
-      <c r="B182" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B182" s="8"/>
       <c r="C182" s="8" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F182" s="9"/>
     </row>
     <row r="183">
       <c r="B183" s="8"/>
       <c r="C183" s="8" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F183" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="F183" s="9"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="8"/>
+      <c r="C184" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" s="9"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="8"/>
+      <c r="C185" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="9"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="8"/>
+      <c r="C186" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" s="9"/>
     </row>
     <row r="187">
-      <c r="B187" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="4"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F187" s="9"/>
     </row>
     <row r="188">
-      <c r="B188" s="5"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="4"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188" s="9"/>
     </row>
     <row r="189">
-      <c r="B189" s="7"/>
-      <c r="C189" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E189" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189" s="9"/>
     </row>
     <row r="190">
-      <c r="B190" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B190" s="8"/>
       <c r="C190" s="8" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F190" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="191">
-      <c r="B191" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B191" s="8"/>
       <c r="C191" s="8" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F191" s="9"/>
+      <c r="F191" s="8" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="192">
       <c r="B192" s="8"/>
       <c r="C192" s="8" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
     </row>
     <row r="193">
-      <c r="B193" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B193" s="8"/>
       <c r="C193" s="8" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F193" s="8" t="s">
-        <v>82</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F193" s="8"/>
     </row>
     <row r="194">
       <c r="B194" s="8"/>
       <c r="C194" s="8" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F194" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="F194" s="8"/>
     </row>
     <row r="195">
       <c r="B195" s="8"/>
       <c r="C195" s="8" t="s">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E195" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F195" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="F195" s="8"/>
     </row>
     <row r="196">
       <c r="B196" s="8"/>
       <c r="C196" s="8" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E196" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F196" s="8" t="s">
-        <v>102</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F196" s="8"/>
     </row>
     <row r="197">
       <c r="B197" s="8"/>
       <c r="C197" s="8" t="s">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>91</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F197" s="8"/>
     </row>
     <row r="198">
       <c r="B198" s="8"/>
       <c r="C198" s="8" t="s">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F198" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="F198" s="8"/>
     </row>
     <row r="199">
       <c r="B199" s="8"/>
       <c r="C199" s="8" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="D199" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F199" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="200">
       <c r="B200" s="8"/>
       <c r="C200" s="8" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="B201" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="4"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="5"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="4"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="7"/>
+      <c r="C205" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F205" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="9"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C201" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D201" s="8" t="s">
+      <c r="C207" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D207" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E201" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F201" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="B202" s="8" t="s">
+      <c r="E207" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207" s="9"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C202" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D202" s="8" t="s">
+      <c r="C208" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D208" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E202" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F202" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="B203" s="8"/>
-      <c r="C203" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F203" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="B207" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="4"/>
-    </row>
-    <row r="208">
-      <c r="B208" s="5"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="4"/>
+      <c r="E208" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="209">
-      <c r="B209" s="7"/>
-      <c r="C209" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E209" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>4</v>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="210">
-      <c r="B210" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B210" s="8"/>
       <c r="C210" s="8" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F210" s="9"/>
+      <c r="F210" s="8" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="211">
       <c r="B211" s="8"/>
       <c r="C211" s="8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F211" s="9"/>
+      <c r="F211" s="8" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="212">
       <c r="B212" s="8"/>
       <c r="C212" s="8" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>10</v>
@@ -3278,88 +3901,544 @@
       <c r="E212" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F212" s="9"/>
+      <c r="F212" s="8" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="213">
       <c r="B213" s="8"/>
       <c r="C213" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F213" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="214">
       <c r="B214" s="8"/>
       <c r="C214" s="8" t="s">
-        <v>113</v>
+        <v>255</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F214" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="215">
       <c r="B215" s="8"/>
       <c r="C215" s="8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F215" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="216">
-      <c r="B216" s="8"/>
+      <c r="B216" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="C216" s="8" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F216" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="F216" s="11" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="217">
       <c r="B217" s="8"/>
       <c r="C217" s="8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F217" s="9"/>
+      <c r="F217" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="218">
       <c r="B218" s="8"/>
       <c r="C218" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="4"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="5"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="4"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="7"/>
+      <c r="C223" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F223" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" s="9"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" s="9"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" s="8"/>
+      <c r="C227" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" s="8"/>
+      <c r="C228" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" s="8"/>
+      <c r="C229" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" s="8"/>
+      <c r="C230" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" s="8"/>
+      <c r="C231" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" s="8"/>
+      <c r="C232" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" s="8"/>
+      <c r="C233" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F234" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" s="8"/>
+      <c r="C235" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D235" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E218" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F218" s="9"/>
+      <c r="E235" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" s="8"/>
+      <c r="C236" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="4"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="5"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="4"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="7"/>
+      <c r="C241" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F241" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242" s="9"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="8"/>
+      <c r="C243" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="8"/>
+      <c r="C244" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244" s="9"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="8"/>
+      <c r="C245" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F245" s="9"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="8"/>
+      <c r="C246" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F246" s="9"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="8"/>
+      <c r="C247" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247" s="9"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="8"/>
+      <c r="C248" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E248" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" s="9"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="8"/>
+      <c r="C249" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F249" s="9"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="8"/>
+      <c r="C250" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E250" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250" s="9"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="8"/>
+      <c r="C251" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" s="8"/>
+      <c r="C252" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" s="8"/>
+      <c r="C253" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" s="8"/>
+      <c r="C254" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E254" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="31">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B21:F21"/>
@@ -3388,6 +4467,9 @@
     <mergeCell ref="B129:F129"/>
     <mergeCell ref="B130:F130"/>
     <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
